--- a/data/Dataset_MODAN_initial_round1.xlsx
+++ b/data/Dataset_MODAN_initial_round1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpro13-6/Desktop/MODAN/抗菌ペプチド/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5449A42-5D41-5F4D-A278-5469973F8AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C50E0CF-C1CF-9D4E-ACDA-F7186716EE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{25C599C3-B986-5743-8D39-AC0174F00E63}"/>
+    <workbookView xWindow="2020" yWindow="980" windowWidth="28800" windowHeight="16080" xr2:uid="{25C599C3-B986-5743-8D39-AC0174F00E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,10 +709,6 @@
     <t>[H]NCC(N[C@]([C@@H](C)CC)([H])C(N[C@@H](CCN)C(N[C@@H](CCN)C(N[C@H](C(N[C@@H](CC(C)C)C(N[C@@H](CCN)C(N[C@@H](CO)C(NC(C(N[C@@H](CCN)C(N[C@@H](CCN)C(N[C@H](C(N[C@@H](C(C)C)C(N[C@@H](CCN)C(NC(C(N[C@H](C(N[C@@H](CCN)C(N)=O)=O)CC1=CC=CC=C1)=O)(C)C)=O)=O)=O)CC2=CC=CC=C2)=O)=O)=O)(C)C)=O)=O)=O)=O)CC3=CC=CC=C3)=O)=O)=O)=O</t>
   </si>
   <si>
-    <t>H-GIX1X1FLX1SUX1X1FVX1UFX1-NH2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>H-GIRRFLRSURRFVRUFR-NH2</t>
   </si>
   <si>
@@ -748,17 +744,9 @@
     <t>[H]NCC(N[C@]([C@@H](C)CC)([H])C(N[C@@H](CCCCN)C(N[C@@H](CCN)C(N[C@H](C(N[C@@H](CC(C)C)C(N[C@@H](CCCCN)C(N[C@@H](CO)C(NC(C(N[C@@H](CCN)C(N[C@@H](CCCCN)C(N[C@H](C(N[C@@H](C(C)C)C(N[C@@H](CCN)C(NC(C(N[C@H](C(N[C@@H](CCCCN)C(N)=O)=O)CC1=CC=CC=C1)=O)(C)C)=O)=O)=O)CC2=CC=CC=C2)=O)=O)=O)(C)C)=O)=O)=O)=O)CC3=CC=CC=C3)=O)=O)=O)=O</t>
   </si>
   <si>
-    <t>H-GIKX1FLKSUX1KFVX1UFK-NH2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[H]NCC(N[C@]([C@@H](C)CC)([H])C(N[C@@H](CCN)C(N[C@@H](CCCCN)C(N[C@H](C(N[C@@H](CC(C)C)C(N[C@@H](CCN)C(N[C@@H](CO)C(NC(C(N[C@@H](CCCCN)C(N[C@@H](CCN)C(N[C@H](C(N[C@@H](C(C)C)C(N[C@@H](CCCCN)C(NC(C(N[C@H](C(N[C@@H](CCN)C(N)=O)=O)CC1=CC=CC=C1)=O)(C)C)=O)=O)=O)CC2=CC=CC=C2)=O)=O)=O)(C)C)=O)=O)=O)=O)CC3=CC=CC=C3)=O)=O)=O)=O</t>
   </si>
   <si>
-    <t>H-GIX1KFLX1SUKX1FVKUFX1-NH2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>H-GIKRFLKSURKFVRUFK-NH2</t>
   </si>
   <si>
@@ -812,15 +800,7 @@
     <t>[H]NCC(N[C@]([C@@H](C)CC)([H])C(N[C@@H](CCCCN)C(N[C@@H](CCCCN)C(N[C@H](C(N[C@@H](CC(C)C)C(N[C@@H](CCCCN)C(N[C@@H](CO)C(NC(C(N[C@@H](CCN)C(N[C@@H](CCN)C(N[C@H](C(N[C@@H](C(C)C)C(N[C@@H](CCN)C(NC(C(N[C@H](C(N[C@@H](CCN)C(N)=O)=O)CC1=CC=CC=C1)=O)(C)C)=O)=O)=O)CC2=CC=CC=C2)=O)=O)=O)(C)C)=O)=O)=O)=O)CC3=CC=CC=C3)=O)=O)=O)=O</t>
   </si>
   <si>
-    <t>H-GIKKFLKSUX1X1FVX1UFX1-NH2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[H]NCC(N[C@]([C@@H](C)CC)([H])C(N[C@@H](CCN)C(N[C@@H](CCN)C(N[C@H](C(N[C@@H](CC(C)C)C(N[C@@H](CCN)C(N[C@@H](CO)C(NC(C(N[C@@H](CCCCN)C(N[C@@H](CCCCN)C(N[C@H](C(N[C@@H](C(C)C)C(N[C@@H](CCCCN)C(NC(C(N[C@H](C(N[C@@H](CCCCN)C(N)=O)=O)CC1=CC=CC=C1)=O)(C)C)=O)=O)=O)CC2=CC=CC=C2)=O)=O)=O)(C)C)=O)=O)=O)=O)CC3=CC=CC=C3)=O)=O)=O)=O</t>
-  </si>
-  <si>
-    <t>H-GIX1X1FLX1SUKKFVKUFK-NH2</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>H-GIKKFLKSURRFVRUFR-NH2</t>
@@ -1262,6 +1242,26 @@
   </si>
   <si>
     <t>Hemolysis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H-GIKJFLKSUJKFVJUFK-NH2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H-GIJKFLJSUKJFVKUFJ-NH2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H-GIKKFLKSUJJFVJUFJ-NH2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H-GIJJFLJSUKKFVKUFK-NH2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H-GIJJFLJSUJJFVJUFJ-NH2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1355,7 +1355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,13 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1396,21 +1390,18 @@
   <dxfs count="18">
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1434,7 +1425,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1450,6 +1441,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1483,14 +1477,14 @@
     <tableColumn id="15" xr3:uid="{27A4A305-CBBF-7749-8C07-B781538C5BF1}" name="番号" dataDxfId="16">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9ED414D8-C021-C447-8AC2-8EABC6C5CC87}" name="SMILES" dataDxfId="15" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{87DCEB0F-5C7E-5041-9E6B-833F6F0F3D1C}" name="NBRC 3972" dataDxfId="14" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{04847395-FD07-4061-AE21-368A6D76BC17}" name="DH5a" dataDxfId="13" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CF7F378B-A098-CA46-B78F-F80856E48FD8}" name="Pseudomonas aeruginosa" dataDxfId="12" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1A4A4E26-B3C3-B943-A9DE-BF61903C742B}" name="Staphylococcus aureus" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{8203777E-F481-0149-8D20-CB0EA2B106F5}" name="Staphylococcus epidermidis" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{64E0C41C-C461-104B-A13E-FA8EAFC54A3D}" name="MDRP" dataDxfId="1" totalsRowDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{3753922A-7F52-4635-AE90-97494CB1D1C6}" name="Hemolysis" dataDxfId="0" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9ED414D8-C021-C447-8AC2-8EABC6C5CC87}" name="SMILES" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{87DCEB0F-5C7E-5041-9E6B-833F6F0F3D1C}" name="NBRC 3972" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{04847395-FD07-4061-AE21-368A6D76BC17}" name="DH5a" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CF7F378B-A098-CA46-B78F-F80856E48FD8}" name="Pseudomonas aeruginosa" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1A4A4E26-B3C3-B943-A9DE-BF61903C742B}" name="Staphylococcus aureus" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8203777E-F481-0149-8D20-CB0EA2B106F5}" name="Staphylococcus epidermidis" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{64E0C41C-C461-104B-A13E-FA8EAFC54A3D}" name="MDRP" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{3753922A-7F52-4635-AE90-97494CB1D1C6}" name="Hemolysis" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1798,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F45" zoomScale="176" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1811,8 +1805,7 @@
     <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1824,28 +1817,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="105">
@@ -1871,7 +1864,7 @@
       <c r="G2" s="1">
         <v>6.25</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="1">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1902,7 +1895,7 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J3" t="s">
@@ -1959,7 +1952,7 @@
       <c r="G5" s="1">
         <v>12.5</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1989,7 +1982,7 @@
       <c r="G6" s="1">
         <v>3.125</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J6" t="s">
@@ -2019,7 +2012,7 @@
       <c r="G7" s="1">
         <v>3.125</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="1">
         <v>3.125</v>
       </c>
       <c r="J7" t="s">
@@ -2106,8 +2099,8 @@
       <c r="H10" s="1">
         <v>12.5</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>187</v>
+      <c r="I10" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -2136,7 +2129,7 @@
       <c r="G11" s="1">
         <v>6.25</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="1">
         <v>100</v>
       </c>
       <c r="J11" t="s">
@@ -2652,7 +2645,7 @@
       <c r="G33" s="1">
         <v>1.56</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="1">
         <v>3.125</v>
       </c>
       <c r="J33" t="s">
@@ -2706,7 +2699,7 @@
       <c r="H35" s="1">
         <v>6.25</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="1">
         <v>50</v>
       </c>
       <c r="J35" t="s">
@@ -2733,7 +2726,7 @@
       <c r="H36" s="1">
         <v>1.56</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="1">
         <v>50</v>
       </c>
       <c r="J36" s="6" t="s">
@@ -2760,7 +2753,7 @@
       <c r="H37" s="1">
         <v>0.78</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="1">
         <v>6.25</v>
       </c>
       <c r="J37" s="6" t="s">
@@ -2787,7 +2780,7 @@
       <c r="H38" s="1">
         <v>0.78</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="1">
         <v>3.125</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -2814,7 +2807,7 @@
       <c r="H39" s="1">
         <v>3.125</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="1">
         <v>1.56</v>
       </c>
       <c r="J39" s="6" t="s">
@@ -2841,7 +2834,7 @@
       <c r="H40" s="1">
         <v>0.78</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="1">
         <v>3.125</v>
       </c>
       <c r="J40" s="6" t="s">
@@ -2868,7 +2861,7 @@
       <c r="H41" s="1">
         <v>1.56</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="1">
         <v>6.25</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -2895,7 +2888,7 @@
       <c r="H42" s="1">
         <v>3.125</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="1">
         <v>0.19</v>
       </c>
       <c r="J42" s="6" t="s">
@@ -2922,7 +2915,7 @@
       <c r="H43" s="1">
         <v>3.125</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="1">
         <v>3.125</v>
       </c>
       <c r="J43" s="6" t="s">
@@ -2937,7 +2930,7 @@
       <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="1">
         <v>6.25</v>
       </c>
       <c r="J44" t="s">
@@ -2964,7 +2957,7 @@
       <c r="H45" s="7">
         <v>3.125</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="7">
         <v>50</v>
       </c>
       <c r="J45" t="s">
@@ -2991,11 +2984,11 @@
       <c r="H46" s="7">
         <v>6.25</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="7">
         <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="126">
@@ -3004,7 +2997,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1">
         <v>3.125</v>
@@ -3018,11 +3011,11 @@
       <c r="H47" s="7">
         <v>12.5</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="7">
         <v>6.25</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="126">
@@ -3031,7 +3024,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>89</v>
@@ -3045,11 +3038,11 @@
       <c r="H48" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="147">
@@ -3058,7 +3051,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>89</v>
@@ -3066,11 +3059,11 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="105">
@@ -3079,7 +3072,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1">
         <v>1.56</v>
@@ -3093,11 +3086,11 @@
       <c r="H50" s="7">
         <v>6.25</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="7">
         <v>50</v>
       </c>
       <c r="J50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="105">
@@ -3106,7 +3099,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1">
         <v>1.56</v>
@@ -3120,11 +3113,11 @@
       <c r="H51" s="7">
         <v>12.5</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="7">
         <v>100</v>
       </c>
       <c r="J51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="105">
@@ -3133,7 +3126,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1">
         <v>1.56</v>
@@ -3147,11 +3140,11 @@
       <c r="H52" s="7">
         <v>3.125</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="7">
         <v>50</v>
       </c>
       <c r="J52" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="105">
@@ -3160,7 +3153,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D53" s="1">
         <v>1.56</v>
@@ -3174,11 +3167,11 @@
       <c r="H53" s="7">
         <v>6.25</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="7">
         <v>50</v>
       </c>
       <c r="J53" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="105">
@@ -3187,7 +3180,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1">
         <v>1.56</v>
@@ -3201,11 +3194,11 @@
       <c r="H54" s="7">
         <v>6.25</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="7">
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="105">
@@ -3214,7 +3207,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D55" s="1">
         <v>3.125</v>
@@ -3228,11 +3221,11 @@
       <c r="H55" s="7">
         <v>3.125</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="7">
         <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="105">
@@ -3241,7 +3234,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="1">
         <v>6.25</v>
@@ -3255,11 +3248,11 @@
       <c r="H56" s="7">
         <v>50</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="105">
@@ -3268,7 +3261,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D57" s="1">
         <v>6.25</v>
@@ -3282,11 +3275,11 @@
       <c r="H57" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="105">
@@ -3295,7 +3288,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>89</v>
@@ -3309,11 +3302,11 @@
       <c r="H58" s="7">
         <v>50</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="7">
         <v>0.78</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="126">
@@ -3322,7 +3315,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>89</v>
@@ -3336,11 +3329,11 @@
       <c r="H59" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="7">
         <v>0.78</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="105">
@@ -3349,7 +3342,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1">
         <v>1.56</v>
@@ -3363,11 +3356,11 @@
       <c r="H60" s="7">
         <v>6.25</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="7">
         <v>50</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="105">
@@ -3376,7 +3369,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D61" s="1">
         <v>1.56</v>
@@ -3390,11 +3383,11 @@
       <c r="H61" s="7">
         <v>3.125</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="7">
         <v>50</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="105">
@@ -3403,7 +3396,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1">
         <v>1.56</v>
@@ -3417,11 +3410,11 @@
       <c r="H62" s="7">
         <v>6.25</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="7">
         <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="105">
@@ -3430,7 +3423,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1">
         <v>1.56</v>
@@ -3444,11 +3437,11 @@
       <c r="H63" s="7">
         <v>3.125</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="7">
         <v>12.5</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="105">
@@ -3457,7 +3450,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D64" s="1">
         <v>1.56</v>
@@ -3471,11 +3464,11 @@
       <c r="H64" s="7">
         <v>6.25</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="7">
         <v>50</v>
       </c>
       <c r="J64" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="105">
@@ -3484,7 +3477,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D65" s="1">
         <v>1.56</v>
@@ -3498,11 +3491,11 @@
       <c r="H65" s="7">
         <v>3.125</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="7">
         <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="105">
@@ -3511,7 +3504,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D66" s="1">
         <v>6.25</v>
@@ -3525,11 +3518,11 @@
       <c r="H66" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="105">
@@ -3538,7 +3531,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D67" s="1">
         <v>6.25</v>
@@ -3552,11 +3545,11 @@
       <c r="H67" s="7">
         <v>50</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="126">
@@ -3565,7 +3558,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>89</v>
@@ -3579,11 +3572,11 @@
       <c r="H68" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="7">
         <v>0.19</v>
       </c>
       <c r="J68" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="126">
@@ -3592,7 +3585,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1">
         <v>50</v>
@@ -3606,11 +3599,11 @@
       <c r="H69" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="7">
         <v>0.78</v>
       </c>
       <c r="J69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="105">
@@ -3619,7 +3612,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1">
         <v>3.125</v>
@@ -3636,11 +3629,11 @@
       <c r="H70" s="1">
         <v>3.125</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="105">
@@ -3649,7 +3642,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1">
         <v>12.5</v>
@@ -3663,11 +3656,11 @@
       <c r="H71" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="105">
@@ -3676,7 +3669,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1">
         <v>1.56</v>
@@ -3690,11 +3683,11 @@
       <c r="H72" s="1">
         <v>1.56</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="105">
@@ -3703,7 +3696,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1">
         <v>3.125</v>
@@ -3717,11 +3710,11 @@
       <c r="H73" s="1">
         <v>12.5</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="1">
         <v>1.56</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="105">
@@ -3730,7 +3723,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D74" s="1">
         <v>6.25</v>
@@ -3744,11 +3737,11 @@
       <c r="H74" s="1">
         <v>25</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="1">
         <v>0.78</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="126">
@@ -3757,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1">
         <v>6.25</v>
@@ -3771,11 +3764,11 @@
       <c r="H75" s="1">
         <v>25</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="1">
         <v>1.56</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="105">
@@ -3784,7 +3777,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1">
         <v>1.56</v>
@@ -3798,11 +3791,11 @@
       <c r="H76" s="1">
         <v>3.125</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="1">
         <v>12.5</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="105">
@@ -3811,7 +3804,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1">
         <v>6.25</v>
@@ -3825,11 +3818,11 @@
       <c r="H77" s="1">
         <v>25</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="1">
         <v>0.78</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="105">
@@ -3838,7 +3831,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>89</v>
@@ -3852,11 +3845,11 @@
       <c r="H78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="1">
         <v>0.78</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="105">
@@ -3865,7 +3858,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
@@ -3882,11 +3875,11 @@
       <c r="H79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="105">
@@ -3895,7 +3888,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>5</v>
@@ -3912,11 +3905,11 @@
       <c r="H80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="105">
@@ -3925,7 +3918,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -3942,11 +3935,11 @@
       <c r="H81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="105">
@@ -3955,7 +3948,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -3972,11 +3965,11 @@
       <c r="H82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="84">
@@ -3985,7 +3978,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -4002,11 +3995,11 @@
       <c r="H83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="105">
@@ -4015,7 +4008,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1">
         <v>6.25</v>
@@ -4026,11 +4019,11 @@
       <c r="H84" s="1">
         <v>25</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>187</v>
+      <c r="I84" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="105">
@@ -4039,7 +4032,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D85" s="1">
         <v>6.25</v>
@@ -4050,11 +4043,11 @@
       <c r="H85" s="1">
         <v>25</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="105">
@@ -4063,22 +4056,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D86" s="1">
         <v>12.5</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H86" s="1">
         <v>50</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="105">
@@ -4087,7 +4080,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D87" s="1">
         <v>6.25</v>
@@ -4098,11 +4091,11 @@
       <c r="H87" s="1">
         <v>50</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="105">
@@ -4111,7 +4104,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D88" s="1">
         <v>6.25</v>
@@ -4122,11 +4115,11 @@
       <c r="H88" s="1">
         <v>25</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="1">
         <v>200</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="105">
@@ -4135,7 +4128,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D89" s="1">
         <v>3.125</v>
@@ -4146,11 +4139,11 @@
       <c r="H89" s="1">
         <v>50</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="105">
@@ -4159,7 +4152,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D90" s="7">
         <v>1.56</v>
@@ -4172,11 +4165,11 @@
       <c r="H90" s="7">
         <v>25</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
